--- a/2025_01_Github_data.xlsx
+++ b/2025_01_Github_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perfe\OneDrive\桌面\PACIS\彻底疯狂版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perfe\OneDrive\桌面\PACIS\1Revision\要正式交的github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093CA2C-72C6-415D-9086-F675672031EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B0E63-B77D-4759-A584-A8BA596E1902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1C6BD4D-C207-4678-B0B4-8E284A6D10EC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="15" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$D$3:$S$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$D$3:$S$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="146">
   <si>
     <t>Author</t>
   </si>
@@ -464,6 +464,24 @@
   </si>
   <si>
     <t>All Agent</t>
+  </si>
+  <si>
+    <t>The More, The Stronger? Investigating How Multi-Agent AI Shapes Human Opinions</t>
+  </si>
+  <si>
+    <t>T. Song, Y. Tan, Z. Zhu, M. Song, F. Yibin and Y.-C. Lee</t>
+  </si>
+  <si>
+    <t>How effective is AI augmentation in human–AI collaboration? Evidence from a field experiment</t>
+  </si>
+  <si>
+    <t>C. Liao, X. Wen, S. Li and P. Du</t>
+  </si>
+  <si>
+    <t>You, me, and the AI: The role of third-party human teammates for trust formation toward AI teammates</t>
+  </si>
+  <si>
+    <t>Erengin T, Briker R, de Jong S B. </t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C476DC2-9F5D-4F47-AEF0-73555DFB75FE}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1115,7 @@
     <col min="14" max="14" width="15.7109375" style="10" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" style="10" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" style="2" customWidth="1"/>
     <col min="20" max="16384" width="11.5703125" style="2"/>
@@ -1222,13 +1240,13 @@
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1236,19 +1254,19 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="21">
-        <v>1</v>
-      </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="N4" s="22">
+        <v>1</v>
+      </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1256,41 +1274,43 @@
         <v>2024</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="21"/>
+        <v>145</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="22">
-        <v>1</v>
-      </c>
+      <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>2024</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1310,18 +1330,18 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>2024</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -1329,19 +1349,19 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
-      <c r="J7" s="21"/>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="22">
-        <v>1</v>
-      </c>
+      <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1349,76 +1369,72 @@
         <v>2024</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="22">
+        <v>1</v>
+      </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>2024</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21">
-        <v>1</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="22">
+        <v>1</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>2024</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1438,25 +1454,27 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>2024</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="21">
         <v>1</v>
       </c>
@@ -1472,22 +1490,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21">
@@ -1502,104 +1520,102 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="N13" s="22">
+        <v>1</v>
+      </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
-      <c r="Q13" s="22">
-        <v>1</v>
-      </c>
+      <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
       <c r="S13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="22"/>
-      <c r="O14" s="22">
-        <v>1</v>
-      </c>
+      <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="22"/>
-      <c r="O15" s="22">
-        <v>1</v>
-      </c>
+      <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="4" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1607,49 +1623,49 @@
         <v>2023</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
+      <c r="F16" s="20">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="21">
-        <v>1</v>
-      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="Q16" s="22">
+        <v>1</v>
+      </c>
       <c r="R16" s="22"/>
       <c r="S16" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2023</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -1665,27 +1681,25 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>2023</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -1701,15 +1715,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>2023</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -1719,68 +1733,70 @@
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
+      <c r="J19" s="21">
+        <v>1</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
-      <c r="Q19" s="22">
-        <v>1</v>
-      </c>
+      <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>2023</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="O20" s="22">
+        <v>1</v>
+      </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
-      <c r="R20" s="22">
-        <v>1</v>
-      </c>
+      <c r="R20" s="22"/>
       <c r="S20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="20">
-        <v>1</v>
-      </c>
+      <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
@@ -1795,25 +1811,25 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
+      <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
@@ -1828,30 +1844,26 @@
       </c>
       <c r="R22" s="22"/>
       <c r="S22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -1859,51 +1871,55 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
+      <c r="R23" s="22">
+        <v>1</v>
+      </c>
       <c r="S23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>2022</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+        <v>108</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="22">
-        <v>1</v>
-      </c>
-      <c r="O24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
+        <v>1</v>
+      </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
       <c r="S24" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2022</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20">
@@ -1916,60 +1932,60 @@
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="21">
-        <v>1</v>
-      </c>
+      <c r="M25" s="21"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="Q25" s="22">
+        <v>1</v>
+      </c>
       <c r="R25" s="22"/>
       <c r="S25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>2022</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="20">
+        <v>1</v>
+      </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
+      <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
+      <c r="J26" s="21">
+        <v>1</v>
+      </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="22">
-        <v>1</v>
-      </c>
+      <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>2022</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1989,33 +2005,33 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="20">
+        <v>1</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
+      <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="21">
-        <v>1</v>
-      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="M28" s="21">
+        <v>1</v>
+      </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
@@ -2025,30 +2041,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="22">
-        <v>1</v>
-      </c>
-      <c r="O29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22">
+        <v>1</v>
+      </c>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
@@ -2058,13 +2076,13 @@
     </row>
     <row r="30" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -2092,26 +2110,28 @@
         <v>2021</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="H31" s="20">
+        <v>1</v>
+      </c>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <v>1</v>
+      </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="22">
-        <v>1</v>
-      </c>
+      <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
       <c r="S31" s="4" t="s">
@@ -2123,10 +2143,10 @@
         <v>2021</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -2149,31 +2169,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>2021</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20">
-        <v>1</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
+      <c r="N33" s="22">
+        <v>1</v>
+      </c>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
@@ -2182,31 +2200,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>2021</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="21">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
+      <c r="P34" s="22">
+        <v>1</v>
+      </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="4" t="s">
@@ -2215,29 +2233,27 @@
     </row>
     <row r="35" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="21">
-        <v>1</v>
-      </c>
+      <c r="L35" s="21"/>
       <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
+      <c r="N35" s="22">
+        <v>1</v>
+      </c>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
@@ -2246,15 +2262,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20">
@@ -2264,30 +2280,30 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
+      <c r="J36" s="21">
+        <v>1</v>
+      </c>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
-      <c r="Q36" s="22">
-        <v>1</v>
-      </c>
+      <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -2295,13 +2311,13 @@
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="21"/>
+      <c r="J37" s="21">
+        <v>1</v>
+      </c>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
-      <c r="N37" s="22">
-        <v>1</v>
-      </c>
+      <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -2309,31 +2325,30 @@
       <c r="S37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20">
-        <v>1</v>
-      </c>
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="21">
-        <v>1</v>
-      </c>
+      <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="L38" s="21">
+        <v>1</v>
+      </c>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -2344,62 +2359,62 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="21"/>
-      <c r="K39" s="21">
-        <v>1</v>
-      </c>
+      <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="Q39" s="22">
+        <v>1</v>
+      </c>
       <c r="R39" s="22"/>
       <c r="S39" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20">
-        <v>1</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="21">
-        <v>1</v>
-      </c>
+      <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
+      <c r="N40" s="22">
+        <v>1</v>
+      </c>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
@@ -2407,30 +2422,33 @@
       <c r="S40" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21">
+        <v>1</v>
+      </c>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="22">
-        <v>1</v>
-      </c>
+      <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -2439,15 +2457,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
@@ -2456,12 +2474,12 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="21">
+        <v>1</v>
+      </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="22">
-        <v>1</v>
-      </c>
+      <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
@@ -2470,28 +2488,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="20"/>
-      <c r="E43" s="20">
-        <v>1</v>
-      </c>
-      <c r="F43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20">
+        <v>1</v>
+      </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="21">
-        <v>1</v>
-      </c>
-      <c r="K43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21">
+        <v>1</v>
+      </c>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
       <c r="N43" s="22"/>
@@ -2508,10 +2526,10 @@
         <v>2018</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -2521,11 +2539,11 @@
       <c r="I44" s="23"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="21">
-        <v>1</v>
-      </c>
+      <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
+      <c r="N44" s="22">
+        <v>1</v>
+      </c>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
@@ -2536,13 +2554,13 @@
     </row>
     <row r="45" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -2554,57 +2572,59 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22">
-        <v>1</v>
-      </c>
+      <c r="N45" s="22">
+        <v>1</v>
+      </c>
+      <c r="O45" s="22"/>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
       <c r="S45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21">
+        <v>1</v>
+      </c>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="22">
-        <v>1</v>
-      </c>
+      <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
       <c r="S46" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -2614,13 +2634,13 @@
       <c r="I47" s="23"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="L47" s="21">
+        <v>1</v>
+      </c>
       <c r="M47" s="21"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
-      <c r="P47" s="22">
-        <v>1</v>
-      </c>
+      <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
       <c r="S47" s="4" t="s">
@@ -2629,22 +2649,20 @@
     </row>
     <row r="48" spans="1:20" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20">
-        <v>1</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
@@ -2657,249 +2675,247 @@
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
       <c r="S48" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20">
-        <v>1</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22">
-        <v>1</v>
-      </c>
+      <c r="N49" s="22">
+        <v>1</v>
+      </c>
+      <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
       <c r="S49" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20">
-        <v>1</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="22"/>
-      <c r="O50" s="22">
-        <v>1</v>
-      </c>
-      <c r="P50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22">
+        <v>1</v>
+      </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>2016</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="22">
-        <v>1</v>
-      </c>
-      <c r="O51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22">
+        <v>1</v>
+      </c>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>2016</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20">
+        <v>1</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
-      <c r="N52" s="22">
-        <v>1</v>
-      </c>
-      <c r="O52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22">
+        <v>1</v>
+      </c>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>2016</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
-      <c r="N53" s="22">
-        <v>1</v>
-      </c>
-      <c r="O53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22">
+        <v>1</v>
+      </c>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
       <c r="S53" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20">
-        <v>1</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22">
-        <v>1</v>
-      </c>
+      <c r="N54" s="22">
+        <v>1</v>
+      </c>
+      <c r="O54" s="22"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
       <c r="S54" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20">
-        <v>1</v>
-      </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
+      <c r="N55" s="22">
+        <v>1</v>
+      </c>
       <c r="O55" s="22"/>
-      <c r="P55" s="22">
-        <v>1</v>
-      </c>
+      <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
       <c r="S55" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20">
-        <v>1</v>
-      </c>
+      <c r="E56" s="20">
+        <v>1</v>
+      </c>
+      <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -2908,62 +2924,64 @@
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
       <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22">
-        <v>1</v>
-      </c>
+      <c r="O56" s="22">
+        <v>1</v>
+      </c>
+      <c r="P56" s="22"/>
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
       <c r="S56" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20">
+        <v>1</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
-      <c r="N57" s="22">
-        <v>1</v>
-      </c>
+      <c r="N57" s="22"/>
       <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
+      <c r="P57" s="22">
+        <v>1</v>
+      </c>
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
       <c r="S57" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D58" s="20"/>
-      <c r="E58" s="20">
-        <v>1</v>
-      </c>
-      <c r="F58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20">
+        <v>1</v>
+      </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -2972,10 +2990,10 @@
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
       <c r="N58" s="22"/>
-      <c r="O58" s="22">
-        <v>1</v>
-      </c>
-      <c r="P58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22">
+        <v>1</v>
+      </c>
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="4" t="s">
@@ -2984,13 +3002,13 @@
     </row>
     <row r="59" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -3010,79 +3028,143 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
       <c r="S59" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20">
-        <f>SUM(E4:E59)</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22">
+        <v>1</v>
+      </c>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="22">
+        <v>1</v>
+      </c>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20">
+        <f>SUM(E7:E61)</f>
         <v>17</v>
       </c>
-      <c r="F60" s="20">
-        <f>SUM(F4:F59)</f>
+      <c r="F62" s="20">
+        <f>SUM(F4:F61)</f>
+        <v>6</v>
+      </c>
+      <c r="G62" s="20">
+        <f>SUM(G7:G61)</f>
         <v>5</v>
       </c>
-      <c r="G60" s="20">
-        <f>SUM(G4:G59)</f>
-        <v>5</v>
-      </c>
-      <c r="H60" s="20">
-        <f>SUM(H4:H59)</f>
-        <v>1</v>
-      </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21">
-        <f t="shared" ref="J60:R60" si="0">SUM(J4:J59)</f>
-        <v>11</v>
-      </c>
-      <c r="K60" s="21">
-        <f t="shared" si="0"/>
+      <c r="H62" s="20">
+        <f>SUM(H7:H61)</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21">
+        <f>SUM(J4:J61)</f>
+        <v>12</v>
+      </c>
+      <c r="K62" s="21">
+        <f t="shared" ref="J62:R62" si="0">SUM(K7:K61)</f>
         <v>3</v>
       </c>
-      <c r="L60" s="21">
+      <c r="L62" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M60" s="21">
+      <c r="M62" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N60" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O60" s="21">
-        <f t="shared" si="0"/>
+      <c r="N62" s="21">
+        <f>SUM(N4:N61)</f>
+        <v>19</v>
+      </c>
+      <c r="O62" s="21">
+        <f>SUM(O7:O61)</f>
         <v>12</v>
       </c>
-      <c r="P60" s="21">
+      <c r="P62" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q60" s="21">
+      <c r="Q62" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R60" s="21">
+      <c r="R62" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S60" s="8">
-        <f>COUNTA(S4:S59)</f>
-        <v>56</v>
+      <c r="S62" s="8">
+        <f>COUNTA(S4:S61)</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D3:S60" xr:uid="{7C476DC2-9F5D-4F47-AEF0-73555DFB75FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:S59">
-    <sortCondition descending="1" ref="A4:A59"/>
-    <sortCondition ref="S4:S59"/>
+  <autoFilter ref="D3:S62" xr:uid="{7C476DC2-9F5D-4F47-AEF0-73555DFB75FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:S61">
+    <sortCondition descending="1" ref="A7:A61"/>
+    <sortCondition ref="S7:S61"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="J2:M2"/>

--- a/2025_01_Github_data.xlsx
+++ b/2025_01_Github_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perfe\OneDrive\桌面\PACIS\1Revision\要正式交的github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perfe\OneDrive\桌面\PACIS\1Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B0E63-B77D-4759-A584-A8BA596E1902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97269C0C-739E-4FF9-9EF8-4319A32D9120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1C6BD4D-C207-4678-B0B4-8E284A6D10EC}"/>
   </bookViews>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C476DC2-9F5D-4F47-AEF0-73555DFB75FE}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1274,19 +1274,17 @@
         <v>2024</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="21">
         <v>1</v>
       </c>
@@ -1299,7 +1297,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="4" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1307,10 +1305,10 @@
         <v>2024</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1330,7 +1328,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="4" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1338,17 +1336,19 @@
         <v>2024</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+        <v>145</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="21">
         <v>1</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="4" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,10 +1369,10 @@
         <v>2024</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -1392,7 +1392,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="4" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,11 +1444,11 @@
       <c r="I10" s="23"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
       <c r="M10" s="21"/>
-      <c r="N10" s="22">
-        <v>1</v>
-      </c>
+      <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1539,13 +1539,13 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="22">
-        <v>1</v>
-      </c>
+      <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -2091,12 +2091,12 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
-      <c r="N30" s="22">
-        <v>1</v>
-      </c>
+      <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -2155,12 +2155,12 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="K32" s="21">
+        <v>1</v>
+      </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="22">
-        <v>1</v>
-      </c>
+      <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
@@ -2474,12 +2474,12 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="21">
-        <v>1</v>
-      </c>
+      <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
+      <c r="N42" s="22">
+        <v>1</v>
+      </c>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
@@ -2859,12 +2859,12 @@
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
-      <c r="N54" s="22">
-        <v>1</v>
-      </c>
+      <c r="N54" s="22"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
+      <c r="Q54" s="22">
+        <v>1</v>
+      </c>
       <c r="R54" s="22"/>
       <c r="S54" s="4" t="s">
         <v>97</v>
@@ -3121,15 +3121,15 @@
       <c r="I62" s="20"/>
       <c r="J62" s="21">
         <f>SUM(J4:J61)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K62" s="21">
-        <f t="shared" ref="J62:R62" si="0">SUM(K7:K61)</f>
-        <v>3</v>
+        <f t="shared" ref="K62:R62" si="0">SUM(K7:K61)</f>
+        <v>4</v>
       </c>
       <c r="L62" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62" s="21">
         <f t="shared" si="0"/>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="N62" s="21">
         <f>SUM(N4:N61)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O62" s="21">
         <f>SUM(O7:O61)</f>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="Q62" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R62" s="21">
         <f t="shared" si="0"/>
@@ -3162,9 +3162,9 @@
     </row>
   </sheetData>
   <autoFilter ref="D3:S62" xr:uid="{7C476DC2-9F5D-4F47-AEF0-73555DFB75FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:S61">
-    <sortCondition descending="1" ref="A7:A61"/>
-    <sortCondition ref="S7:S61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:S61">
+    <sortCondition descending="1" ref="A4:A61"/>
+    <sortCondition ref="S4:S61"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="J2:M2"/>
